--- a/Organisation/Arbeitszeiten/Arbeitszeiten.xlsx
+++ b/Organisation/Arbeitszeiten/Arbeitszeiten.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <workbookPr date1904="1" codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Push\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Desktop\Präsi 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE231E9-81B7-4E5A-9152-1485330690A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A07744-2F30-4D8A-93E4-8BF9A768B450}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18C2AE6B-9F7B-4513-8F84-E6F59AC358CD}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="95">
   <si>
     <t>SWTP-SS20-Kammer-2  / Data-Analytics</t>
   </si>
@@ -280,13 +280,7 @@
     <t>[Entwurf] Konzept GUI erstellen</t>
   </si>
   <si>
-    <t>[Organisation] Output Video überarbeiten</t>
-  </si>
-  <si>
     <t>[Organisation] Konzept für Tests</t>
-  </si>
-  <si>
-    <t>[Organisation] Projekt/Code Strukturierung</t>
   </si>
   <si>
     <t>[Entwurf] Zustandsdiagram erstellen</t>
@@ -299,6 +293,39 @@
   </si>
   <si>
     <t>Termin</t>
+  </si>
+  <si>
+    <t>[Organisation] Python Code Style</t>
+  </si>
+  <si>
+    <t>[Recherche] Einarbeiten in GIMP</t>
+  </si>
+  <si>
+    <t>[Organisation] Python Doko Generator</t>
+  </si>
+  <si>
+    <t>[Organisation] Github anpassen</t>
+  </si>
+  <si>
+    <t>[Organisation] Ordner Struktur</t>
+  </si>
+  <si>
+    <t>[Implementierung] Wettericons, Orte</t>
+  </si>
+  <si>
+    <t>[Entwurf] Aufbau des Wetterberichts</t>
+  </si>
+  <si>
+    <t>[Entwurf] Bugfix Wetterkarte</t>
+  </si>
+  <si>
+    <t>[Organisation] Update Excel Datei</t>
+  </si>
+  <si>
+    <t>[Implementierung] 3 Tages Vorhersage</t>
+  </si>
+  <si>
+    <t>[Organisation] Präsentation Planung</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1190,7 +1217,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1200,6 +1226,10 @@
     <xf numFmtId="21" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1386,14 +1416,20 @@
     <xf numFmtId="46" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2713,10 +2749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADCD723-46E3-4727-8F4C-FA259F9372A1}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AH62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+      <selection activeCell="I7" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,17 +2764,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
@@ -2749,39 +2786,39 @@
       <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="101" t="s">
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="101" t="s">
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="101" t="s">
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="102"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="101" t="s">
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="102"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="101" t="s">
+      <c r="V3" s="105"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="103"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="106"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -2790,16 +2827,16 @@
       <c r="B4" s="10">
         <v>42482</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="136" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="110"/>
+      <c r="H4" s="113"/>
       <c r="I4" s="20" t="s">
         <v>38</v>
       </c>
@@ -2862,81 +2899,81 @@
       <c r="B5" s="5">
         <v>42486</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="134"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="29"/>
       <c r="F5" s="30"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="92">
+      <c r="H5" s="123"/>
+      <c r="I5" s="95">
         <f>Pellekoorne!I4</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="97">
         <f>IF(A49=FALSE,I33/C35,I33/14)</f>
         <v>0.8035714285714286</v>
       </c>
-      <c r="K5" s="104">
+      <c r="K5" s="107">
         <f>ROUNDDOWN(J5-I5,6)</f>
         <v>0.136904</v>
       </c>
-      <c r="L5" s="92">
+      <c r="L5" s="95">
         <f>Gutsche!I4</f>
         <v>0.75694444444444442</v>
       </c>
-      <c r="M5" s="94">
+      <c r="M5" s="97">
         <f>IF(A49=FALSE,L33/C35,L33/14)</f>
         <v>0.8035714285714286</v>
       </c>
-      <c r="N5" s="104">
+      <c r="N5" s="107">
         <f>ROUNDDOWN(M5-L5,6)</f>
         <v>4.6626000000000001E-2</v>
       </c>
-      <c r="O5" s="92">
+      <c r="O5" s="95">
         <f>Lapp!I4</f>
         <v>0.625</v>
       </c>
-      <c r="P5" s="94">
+      <c r="P5" s="97">
         <f>IF(A49=FALSE,O33/C35,O33/14)</f>
         <v>0.8035714285714286</v>
       </c>
-      <c r="Q5" s="104">
+      <c r="Q5" s="107">
         <f t="shared" ref="Q5" si="0">ROUNDDOWN(P5-O5,6)</f>
         <v>0.17857100000000001</v>
       </c>
-      <c r="R5" s="92">
+      <c r="R5" s="95">
         <f>Martschenko!I4</f>
         <v>0.5625</v>
       </c>
-      <c r="S5" s="94">
+      <c r="S5" s="97">
         <f>IF(A49=FALSE,R33/C35,R33/14)</f>
         <v>0.8035714285714286</v>
       </c>
-      <c r="T5" s="96">
+      <c r="T5" s="99">
         <f t="shared" ref="T5" si="1">ROUNDDOWN(S5-R5,6)</f>
         <v>0.24107100000000001</v>
       </c>
-      <c r="U5" s="92">
+      <c r="U5" s="95">
         <f>Soboth!I4</f>
         <v>0.5</v>
       </c>
-      <c r="V5" s="94">
+      <c r="V5" s="97">
         <f>IF(A49=FALSE,U33/C35,U33/14)</f>
         <v>0.8035714285714286</v>
       </c>
-      <c r="W5" s="96">
+      <c r="W5" s="99">
         <f t="shared" ref="W5" si="2">ROUNDDOWN(V5-U5,6)</f>
         <v>0.30357099999999998</v>
       </c>
-      <c r="X5" s="92">
+      <c r="X5" s="95">
         <f>Stephan!I4</f>
         <v>0.52083333333333337</v>
       </c>
-      <c r="Y5" s="94">
+      <c r="Y5" s="97">
         <f>IF(A49=FALSE,X33/C35,X33/14)</f>
         <v>0.8035714285714286</v>
       </c>
-      <c r="Z5" s="96">
+      <c r="Z5" s="99">
         <f t="shared" ref="Z5" si="3">ROUNDDOWN(Y5-X5,6)</f>
         <v>0.28273799999999999</v>
       </c>
@@ -2948,32 +2985,32 @@
       <c r="B6" s="12">
         <v>42519</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="135"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="97"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="100"/>
     </row>
     <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -2982,87 +3019,87 @@
       <c r="B7" s="6">
         <v>42493</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="125" t="s">
+      <c r="C7" s="135"/>
+      <c r="D7" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="117"/>
+      <c r="F7" s="120"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="86">
+      <c r="H7" s="121"/>
+      <c r="I7" s="89">
         <f>Pellekoorne!I6</f>
-        <v>0.10416666666666666</v>
-      </c>
-      <c r="J7" s="88">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="J7" s="91">
         <f>IF(A50=FALSE,I34/C35,(I33-I5)/13)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K7" s="106">
+      <c r="K7" s="109">
         <f t="shared" ref="K7" si="4">J7-I7</f>
-        <v>0.70993589743589747</v>
-      </c>
-      <c r="L7" s="86">
+        <v>0.43215811965811968</v>
+      </c>
+      <c r="L7" s="89">
         <f>Gutsche!I6</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="M7" s="88">
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="M7" s="91">
         <f>IF(A50=FALSE,L34/C35,(L33-L5)/13)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N7" s="106">
+      <c r="N7" s="109">
         <f t="shared" ref="N7" si="5">M7-L7</f>
-        <v>0.74465811965811968</v>
-      </c>
-      <c r="O7" s="86">
+        <v>0.63007478632478642</v>
+      </c>
+      <c r="O7" s="89">
         <f>Lapp!I6</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="88">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="P7" s="91">
         <f>IF(A50=FALSE,O34/C35,(O33-O5)/13)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q7" s="106">
+      <c r="Q7" s="109">
         <f t="shared" ref="Q7" si="6">P7-O7</f>
-        <v>0.81730769230769229</v>
-      </c>
-      <c r="R7" s="86">
+        <v>0.3832799145299145</v>
+      </c>
+      <c r="R7" s="89">
         <f>Martschenko!I6</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="88">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="S7" s="91">
         <f>IF(A50=FALSE,R34/C35,(R33-R5)/13)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T7" s="90">
+      <c r="T7" s="93">
         <f t="shared" ref="T7" si="7">S7-R7</f>
-        <v>0.82211538461538458</v>
-      </c>
-      <c r="U7" s="86">
+        <v>0.61378205128205132</v>
+      </c>
+      <c r="U7" s="89">
         <f>Soboth!I6</f>
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="V7" s="88">
+        <v>0.21875</v>
+      </c>
+      <c r="V7" s="91">
         <f>IF(A50=FALSE,U34/C35,(U33-U5)/13)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W7" s="90">
+      <c r="W7" s="93">
         <f t="shared" ref="W7" si="8">V7-U7</f>
-        <v>0.71928418803418803</v>
-      </c>
-      <c r="X7" s="86">
+        <v>0.60817307692307687</v>
+      </c>
+      <c r="X7" s="89">
         <f>Stephan!I6</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="88">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="Y7" s="91">
         <f>IF(A50=FALSE,X34/C35,(X33-X5)/13)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z7" s="90">
+      <c r="Z7" s="93">
         <f t="shared" ref="Z7" si="9">Y7-X7</f>
-        <v>0.82532051282051277</v>
+        <v>0.47462606837606836</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -3072,32 +3109,32 @@
       <c r="B8" s="10">
         <v>42496</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="125"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="32"/>
       <c r="F8" s="2"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="100"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="103"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -3106,83 +3143,83 @@
       <c r="B9" s="5">
         <v>42500</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="126" t="s">
+      <c r="C9" s="133"/>
+      <c r="D9" s="129" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="34"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="92">
+      <c r="H9" s="124"/>
+      <c r="I9" s="95">
         <f>Pellekoorne!I8</f>
         <v>0</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="97">
         <f>IF(A51=FALSE,I34/C35,(I33-I5-I7)/12)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K9" s="104">
+      <c r="K9" s="107">
         <f t="shared" ref="K9" si="10">J9-I9</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L9" s="92">
+      <c r="L9" s="95">
         <f>Gutsche!I8</f>
         <v>0</v>
       </c>
-      <c r="M9" s="94">
+      <c r="M9" s="97">
         <f>IF(A51=FALSE,L34/C35,(L33-L5-L7)/12)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N9" s="104">
+      <c r="N9" s="107">
         <f t="shared" ref="N9" si="11">M9-L9</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O9" s="92">
+      <c r="O9" s="95">
         <f>Lapp!I8</f>
         <v>0</v>
       </c>
-      <c r="P9" s="94">
+      <c r="P9" s="97">
         <f>IF(A51=FALSE,O34/C35,(O33-O5-O7)/12)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q9" s="104">
+      <c r="Q9" s="107">
         <f t="shared" ref="Q9" si="12">P9-O9</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R9" s="92">
+      <c r="R9" s="95">
         <f>Martschenko!I8</f>
         <v>0</v>
       </c>
-      <c r="S9" s="94">
+      <c r="S9" s="97">
         <f>IF(A51=FALSE,R34/C35,(R33-R5-R7)/12)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T9" s="96">
+      <c r="T9" s="99">
         <f t="shared" ref="T9" si="13">S9-R9</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U9" s="92">
+      <c r="U9" s="95">
         <f>Soboth!I8</f>
         <v>0</v>
       </c>
-      <c r="V9" s="94">
+      <c r="V9" s="97">
         <f>IF(A51=FALSE,U34/C35,(U33-U5-U7)/12)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W9" s="96">
+      <c r="W9" s="99">
         <f t="shared" ref="W9" si="14">V9-U9</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X9" s="92">
+      <c r="X9" s="95">
         <f>Stephan!I8</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="94">
+      <c r="Y9" s="97">
         <f>IF(A51=FALSE,X34/C35,(X33-X5-X7)/12)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z9" s="96">
+      <c r="Z9" s="99">
         <f t="shared" ref="Z9" si="15">Y9-X9</f>
         <v>0.82532051282051277</v>
       </c>
@@ -3194,32 +3231,32 @@
       <c r="B10" s="12">
         <v>42503</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="126"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="32"/>
       <c r="F10" s="2"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="97"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="100"/>
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -3228,85 +3265,85 @@
       <c r="B11" s="6">
         <v>42507</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="125" t="s">
+      <c r="C11" s="135"/>
+      <c r="D11" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="115"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="86">
+      <c r="H11" s="121"/>
+      <c r="I11" s="89">
         <f>Pellekoorne!I10</f>
         <v>0</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="91">
         <f>IF(A52=FALSE,I34/C35,(I33-I5-I7-I9)/11)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K11" s="106">
+      <c r="K11" s="109">
         <f t="shared" ref="K11" si="16">J11-I11</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L11" s="86">
+      <c r="L11" s="89">
         <f>Gutsche!I10</f>
         <v>0</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="91">
         <f>IF(A52=FALSE,L34/C35,(L33-L5-L7-L9)/11)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N11" s="106">
+      <c r="N11" s="109">
         <f t="shared" ref="N11" si="17">M11-L11</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O11" s="86">
+      <c r="O11" s="89">
         <f>Lapp!I10</f>
         <v>0</v>
       </c>
-      <c r="P11" s="88">
+      <c r="P11" s="91">
         <f>IF(A52=FALSE,O34/C35,(O33-O5-O7-O9)/11)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q11" s="106">
+      <c r="Q11" s="109">
         <f t="shared" ref="Q11" si="18">P11-O11</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R11" s="86">
+      <c r="R11" s="89">
         <f>Martschenko!I10</f>
         <v>0</v>
       </c>
-      <c r="S11" s="88">
+      <c r="S11" s="91">
         <f>IF(A52=FALSE,R34/C35,(R33-R5-R7-R9)/11)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T11" s="90">
+      <c r="T11" s="93">
         <f t="shared" ref="T11" si="19">S11-R11</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U11" s="86">
+      <c r="U11" s="89">
         <f>Soboth!I10</f>
         <v>0</v>
       </c>
-      <c r="V11" s="88">
+      <c r="V11" s="91">
         <f>IF(A52=FALSE,U34/C35,(U33-U5-U7-U9)/11)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W11" s="90">
+      <c r="W11" s="93">
         <f t="shared" ref="W11" si="20">V11-U11</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X11" s="86">
+      <c r="X11" s="89">
         <f>Stephan!I10</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="88">
+      <c r="Y11" s="91">
         <f>IF(A52=FALSE,X34/C35,(X33-X5-X7-X9)/11)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z11" s="90">
+      <c r="Z11" s="93">
         <f t="shared" ref="Z11" si="21">Y11-X11</f>
         <v>0.82532051282051277</v>
       </c>
@@ -3318,32 +3355,32 @@
       <c r="B12" s="10">
         <v>42510</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="125"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="32"/>
       <c r="F12" s="2"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="100"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="103"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3352,83 +3389,83 @@
       <c r="B13" s="5">
         <v>42514</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="126" t="s">
+      <c r="C13" s="133"/>
+      <c r="D13" s="129" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="92">
+      <c r="H13" s="121"/>
+      <c r="I13" s="95">
         <f>Pellekoorne!I12</f>
         <v>0</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="97">
         <f>IF(A53=FALSE,I34/C35,(I33-I5-I7-I9-I11)/10)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K13" s="104">
+      <c r="K13" s="107">
         <f t="shared" ref="K13" si="22">J13-I13</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L13" s="92">
+      <c r="L13" s="95">
         <f>Gutsche!I12</f>
         <v>0</v>
       </c>
-      <c r="M13" s="94">
+      <c r="M13" s="97">
         <f>IF(A54=FALSE,L34/C35,(L33-L5-L7-L9-L11)/10)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N13" s="104">
+      <c r="N13" s="107">
         <f t="shared" ref="N13" si="23">M13-L13</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O13" s="92">
+      <c r="O13" s="95">
         <f>Lapp!I12</f>
         <v>0</v>
       </c>
-      <c r="P13" s="94">
+      <c r="P13" s="97">
         <f>IF(A53=FALSE,O34/C35,(O33-O5-O7-O9-O11)/10)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q13" s="104">
+      <c r="Q13" s="107">
         <f t="shared" ref="Q13" si="24">P13-O13</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R13" s="92">
+      <c r="R13" s="95">
         <f>Martschenko!I12</f>
         <v>0</v>
       </c>
-      <c r="S13" s="94">
+      <c r="S13" s="97">
         <f>IF(A53=FALSE,R34/C35,(R33-R5-R7-R9-R11)/10)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T13" s="96">
+      <c r="T13" s="99">
         <f t="shared" ref="T13" si="25">S13-R13</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U13" s="92">
+      <c r="U13" s="95">
         <f>Soboth!I12</f>
         <v>0</v>
       </c>
-      <c r="V13" s="94">
+      <c r="V13" s="97">
         <f>IF(A53=FALSE,U34/C35,(U33-U5-U7-U9-U11)/10)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W13" s="96">
+      <c r="W13" s="99">
         <f t="shared" ref="W13" si="26">V13-U13</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X13" s="92">
+      <c r="X13" s="95">
         <f>Stephan!I12</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="94">
+      <c r="Y13" s="97">
         <f>IF(A53=FALSE,X34/C35,(X33-X5-X7-X9-X11)/10)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z13" s="96">
+      <c r="Z13" s="99">
         <f t="shared" ref="Z13" si="27">Y13-X13</f>
         <v>0.82532051282051277</v>
       </c>
@@ -3440,32 +3477,32 @@
       <c r="B14" s="12">
         <v>42517</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="126"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="32"/>
       <c r="F14" s="2"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="97"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="100"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3474,83 +3511,83 @@
       <c r="B15" s="13">
         <v>42521</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="125" t="s">
+      <c r="C15" s="133"/>
+      <c r="D15" s="128" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="86">
+      <c r="H15" s="121"/>
+      <c r="I15" s="89">
         <f>Pellekoorne!I14</f>
         <v>0</v>
       </c>
-      <c r="J15" s="88">
+      <c r="J15" s="91">
         <f>IF(A54=FALSE,I34/C35,(I33-I5-I7-I9-I11-I13)/9)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K15" s="106">
+      <c r="K15" s="109">
         <f t="shared" ref="K15" si="28">J15-I15</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L15" s="86">
+      <c r="L15" s="89">
         <f>Gutsche!I14</f>
         <v>0</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="91">
         <f>IF(A56=FALSE,L34/C35,(L33-L5-L7-L9-L11-L13)/9)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N15" s="106">
+      <c r="N15" s="109">
         <f t="shared" ref="N15" si="29">M15-L15</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O15" s="86">
+      <c r="O15" s="89">
         <f>Lapp!I14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="88">
+      <c r="P15" s="91">
         <f>IF(A54=FALSE,O34/C35,(O33-O5-O7-O9-O11-O13)/9)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q15" s="106">
+      <c r="Q15" s="109">
         <f t="shared" ref="Q15" si="30">P15-O15</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R15" s="86">
+      <c r="R15" s="89">
         <f>Martschenko!I14</f>
         <v>0</v>
       </c>
-      <c r="S15" s="88">
+      <c r="S15" s="91">
         <f>IF(A54=FALSE,R34/C35,(R33-R5-R7-R9-R11-R13)/9)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T15" s="90">
+      <c r="T15" s="93">
         <f t="shared" ref="T15" si="31">S15-R15</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U15" s="86">
+      <c r="U15" s="89">
         <f>Soboth!I14</f>
         <v>0</v>
       </c>
-      <c r="V15" s="88">
+      <c r="V15" s="91">
         <f>IF(A54=FALSE,U34/C35,(U33-U5-U7-U9-U11-U13)/9)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W15" s="90">
+      <c r="W15" s="93">
         <f t="shared" ref="W15" si="32">V15-U15</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X15" s="86">
+      <c r="X15" s="89">
         <f>Stephan!I14</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="88">
+      <c r="Y15" s="91">
         <f>IF(A54=FALSE,X34/C35,(X33-X5-X7-X9-X11-X13)/9)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z15" s="90">
+      <c r="Z15" s="93">
         <f t="shared" ref="Z15" si="33">Y15-X15</f>
         <v>0.82532051282051277</v>
       </c>
@@ -3562,32 +3599,32 @@
       <c r="B16" s="10">
         <v>42524</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="125"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="32"/>
       <c r="F16" s="2"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="100"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="103"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -3604,83 +3641,83 @@
       <c r="B17" s="13">
         <v>42528</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="126" t="s">
+      <c r="C17" s="133"/>
+      <c r="D17" s="129" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="92">
+      <c r="H17" s="121"/>
+      <c r="I17" s="95">
         <f>Pellekoorne!I16</f>
         <v>0</v>
       </c>
-      <c r="J17" s="94">
+      <c r="J17" s="97">
         <f>IF(A55=FALSE,I34/C35,(I33-I5-I7-I9-I11-I13-I15)/8)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K17" s="104">
+      <c r="K17" s="107">
         <f t="shared" ref="K17" si="34">J17-I17</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L17" s="92">
+      <c r="L17" s="95">
         <f>Gutsche!I16</f>
         <v>0</v>
       </c>
-      <c r="M17" s="94">
+      <c r="M17" s="97">
         <f>IF(A58=FALSE,L34/C35,(L33-L5-L7-L9-L11-L13-L15)/8)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N17" s="104">
+      <c r="N17" s="107">
         <f t="shared" ref="N17" si="35">M17-L17</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O17" s="92">
+      <c r="O17" s="95">
         <f>Lapp!I16</f>
         <v>0</v>
       </c>
-      <c r="P17" s="94">
+      <c r="P17" s="97">
         <f>IF(A55=FALSE,O34/C35,(O33-O5-O7-O9-O11-O13-O15)/8)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q17" s="104">
+      <c r="Q17" s="107">
         <f t="shared" ref="Q17" si="36">P17-O17</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R17" s="92">
+      <c r="R17" s="95">
         <f>Martschenko!I16</f>
         <v>0</v>
       </c>
-      <c r="S17" s="94">
+      <c r="S17" s="97">
         <f>IF(A55=FALSE,R34/C35,(R33-R5-R7-R9-R11-R13-R15)/8)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T17" s="96">
+      <c r="T17" s="99">
         <f t="shared" ref="T17" si="37">S17-R17</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U17" s="92">
+      <c r="U17" s="95">
         <f>Soboth!I16</f>
         <v>0</v>
       </c>
-      <c r="V17" s="94">
+      <c r="V17" s="97">
         <f>IF(A55=FALSE,U34/C35,(U33-U5-U7-U9-U11-U13-U15)/8)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W17" s="96">
+      <c r="W17" s="99">
         <f t="shared" ref="W17" si="38">V17-U17</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X17" s="92">
+      <c r="X17" s="95">
         <f>Stephan!I16</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="94">
+      <c r="Y17" s="97">
         <f>IF(A55=FALSE,X34/C35,(X33-X5-X7-X9-X11-X13-X15)/8)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z17" s="96">
+      <c r="Z17" s="99">
         <f t="shared" ref="Z17" si="39">Y17-X17</f>
         <v>0.82532051282051277</v>
       </c>
@@ -3692,34 +3729,34 @@
       <c r="B18" s="12">
         <v>42531</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="137" t="s">
+      <c r="D18" s="129"/>
+      <c r="E18" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="111"/>
+      <c r="F18" s="114"/>
       <c r="G18" s="33"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="97"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="100"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -3728,85 +3765,85 @@
       <c r="B19" s="6">
         <v>42535</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="125" t="s">
+      <c r="C19" s="135"/>
+      <c r="D19" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="113"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="31"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="86">
+      <c r="H19" s="121"/>
+      <c r="I19" s="89">
         <f>Pellekoorne!I18</f>
         <v>0</v>
       </c>
-      <c r="J19" s="88">
+      <c r="J19" s="91">
         <f>IF(A56=FALSE,I34/C35,(I33-I5-I7-I9-I11-I13-I15-I17)/7)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K19" s="106">
+      <c r="K19" s="109">
         <f t="shared" ref="K19" si="40">J19-I19</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L19" s="86">
+      <c r="L19" s="89">
         <f>Gutsche!I18</f>
         <v>0</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="91">
         <f>IF(A60=FALSE,L34/C35,(L33-L5-L7-L9-L11-L13-L15-L17)/7)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N19" s="106">
+      <c r="N19" s="109">
         <f t="shared" ref="N19" si="41">M19-L19</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O19" s="86">
+      <c r="O19" s="89">
         <f>Lapp!I18</f>
         <v>0</v>
       </c>
-      <c r="P19" s="88">
+      <c r="P19" s="91">
         <f>IF(A56=FALSE,O34/C35,(O33-O5-O7-O9-O11-O13-O15-O17)/7)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q19" s="106">
+      <c r="Q19" s="109">
         <f t="shared" ref="Q19" si="42">P19-O19</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R19" s="86">
+      <c r="R19" s="89">
         <f>Martschenko!I18</f>
         <v>0</v>
       </c>
-      <c r="S19" s="88">
+      <c r="S19" s="91">
         <f>IF(A56=FALSE,R34/C35,(R33-R5-R7-R9-R11-R13-R15-R17)/7)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T19" s="90">
+      <c r="T19" s="93">
         <f t="shared" ref="T19" si="43">S19-R19</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U19" s="86">
+      <c r="U19" s="89">
         <f>Soboth!I18</f>
         <v>0</v>
       </c>
-      <c r="V19" s="88">
+      <c r="V19" s="91">
         <f>IF(A56=FALSE,U34/C35,(U33-U5-U7-U9-U11-U13-U15-U17)/7)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W19" s="90">
+      <c r="W19" s="93">
         <f t="shared" ref="W19" si="44">V19-U19</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X19" s="86">
+      <c r="X19" s="89">
         <f>Stephan!I18</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="88">
+      <c r="Y19" s="91">
         <f>IF(A56=FALSE,X34/C35,(X33-X5-X7-X9-X11-X13-X15-X17)/7)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z19" s="90">
+      <c r="Z19" s="93">
         <f t="shared" ref="Z19" si="45">Y19-X19</f>
         <v>0.82532051282051277</v>
       </c>
@@ -3818,29 +3855,29 @@
       <c r="B20" s="10">
         <v>42538</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="125"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="100"/>
+      <c r="D20" s="128"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="103"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3849,83 +3886,83 @@
       <c r="B21" s="13">
         <v>42542</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="126" t="s">
+      <c r="C21" s="133"/>
+      <c r="D21" s="129" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="92">
+      <c r="H21" s="121"/>
+      <c r="I21" s="95">
         <f>Pellekoorne!I20</f>
         <v>0</v>
       </c>
-      <c r="J21" s="94">
+      <c r="J21" s="97">
         <f>IF(A57=FALSE,I34/C35,(I33-I5-I7-I9-I11-I13-I15-I17-I19)/6)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K21" s="104">
+      <c r="K21" s="107">
         <f t="shared" ref="K21" si="46">J21-I21</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L21" s="92">
+      <c r="L21" s="95">
         <f>Gutsche!I20</f>
         <v>0</v>
       </c>
-      <c r="M21" s="94">
+      <c r="M21" s="97">
         <f>IF(A62=FALSE,L34/C35,(L33-L5-L7-L9-L11-L13-L15-L17-L19)/6)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N21" s="104">
+      <c r="N21" s="107">
         <f t="shared" ref="N21" si="47">M21-L21</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O21" s="92">
+      <c r="O21" s="95">
         <f>Lapp!I20</f>
         <v>0</v>
       </c>
-      <c r="P21" s="94">
+      <c r="P21" s="97">
         <f>IF(A57=FALSE,O34/C35,(O33-O5-O7-O9-O11-O13-O15-O17-O19)/6)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q21" s="104">
+      <c r="Q21" s="107">
         <f t="shared" ref="Q21" si="48">P21-O21</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R21" s="92">
+      <c r="R21" s="95">
         <f>Martschenko!I20</f>
         <v>0</v>
       </c>
-      <c r="S21" s="94">
+      <c r="S21" s="97">
         <f>IF(A57=FALSE,R34/C35,(R33-R5-R7-R9-R11-R13-R15-R17-R19)/6)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T21" s="96">
+      <c r="T21" s="99">
         <f t="shared" ref="T21" si="49">S21-R21</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U21" s="92">
+      <c r="U21" s="95">
         <f>Soboth!I20</f>
         <v>0</v>
       </c>
-      <c r="V21" s="94">
+      <c r="V21" s="97">
         <f>IF(A57=FALSE,U34/C35,(U33-U5-U7-U9-U11-U13-U15-U17-U19)/6)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W21" s="96">
+      <c r="W21" s="99">
         <f t="shared" ref="W21" si="50">V21-U21</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X21" s="92">
+      <c r="X21" s="95">
         <f>Stephan!I20</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="94">
+      <c r="Y21" s="97">
         <f>IF(A57=FALSE,X34/C35,(X33-X5-X7-X9-X11-X13-X15-X17-X19)/6)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z21" s="96">
+      <c r="Z21" s="99">
         <f t="shared" ref="Z21" si="51">Y21-X21</f>
         <v>0.82532051282051277</v>
       </c>
@@ -3937,32 +3974,32 @@
       <c r="B22" s="12">
         <v>42545</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="32"/>
       <c r="F22" s="2"/>
       <c r="G22" s="33"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="97"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="100"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3971,83 +4008,83 @@
       <c r="B23" s="13">
         <v>42549</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="125" t="s">
+      <c r="C23" s="133"/>
+      <c r="D23" s="128" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="86">
+      <c r="H23" s="121"/>
+      <c r="I23" s="89">
         <f>Pellekoorne!I22</f>
         <v>0</v>
       </c>
-      <c r="J23" s="88">
+      <c r="J23" s="91">
         <f>IF(A58=FALSE,I34/C35,(I33-I5-I7-I9-I11-I13-I15-I17-I19-I21)/5)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K23" s="106">
+      <c r="K23" s="109">
         <f t="shared" ref="K23" si="52">J23-I23</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L23" s="86">
+      <c r="L23" s="89">
         <f>Gutsche!I22</f>
         <v>0</v>
       </c>
-      <c r="M23" s="88">
+      <c r="M23" s="91">
         <f>IF(A64=FALSE,L34/C35,(L33-L5-L7-L9-L11-L13-L15-L17-L19-L21)/5)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N23" s="106">
+      <c r="N23" s="109">
         <f t="shared" ref="N23" si="53">M23-L23</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O23" s="86">
+      <c r="O23" s="89">
         <f>Lapp!I22</f>
         <v>0</v>
       </c>
-      <c r="P23" s="88">
+      <c r="P23" s="91">
         <f>IF(A58=FALSE,O34/C35,(O33-O5-O7-O9-O11-O13-O15-O17-O19-O21)/5)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q23" s="106">
+      <c r="Q23" s="109">
         <f t="shared" ref="Q23" si="54">P23-O23</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R23" s="86">
+      <c r="R23" s="89">
         <f>Martschenko!I22</f>
         <v>0</v>
       </c>
-      <c r="S23" s="88">
+      <c r="S23" s="91">
         <f>IF(A58=FALSE,R34/C35,(R33-R5-R7-R9-R11-R13-R15-R17-R19-R21)/5)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T23" s="90">
+      <c r="T23" s="93">
         <f t="shared" ref="T23" si="55">S23-R23</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U23" s="86">
+      <c r="U23" s="89">
         <f>Soboth!I22</f>
         <v>0</v>
       </c>
-      <c r="V23" s="88">
+      <c r="V23" s="91">
         <f>IF(A58=FALSE,U34/C35,(U33-U5-U7-U9-U11-U13-U15-U17-U19-U21)/5)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W23" s="90">
+      <c r="W23" s="93">
         <f t="shared" ref="W23" si="56">V23-U23</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X23" s="86">
+      <c r="X23" s="89">
         <f>Stephan!I22</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="88">
+      <c r="Y23" s="91">
         <f>IF(A58=FALSE,X34/C35,(X33-X5-X7-X9-X11-X13-X15-X17-X19-X21)/5)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z23" s="90">
+      <c r="Z23" s="93">
         <f t="shared" ref="Z23" si="57">Y23-X23</f>
         <v>0.82532051282051277</v>
       </c>
@@ -4059,32 +4096,32 @@
       <c r="B24" s="10">
         <v>42552</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="125"/>
+      <c r="D24" s="128"/>
       <c r="E24" s="32"/>
       <c r="F24" s="2"/>
       <c r="G24" s="33"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="100"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="103"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -4093,83 +4130,83 @@
       <c r="B25" s="13">
         <v>42556</v>
       </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="126" t="s">
+      <c r="C25" s="130"/>
+      <c r="D25" s="129" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="39"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="92">
+      <c r="H25" s="121"/>
+      <c r="I25" s="95">
         <f>Pellekoorne!I24</f>
         <v>0</v>
       </c>
-      <c r="J25" s="94">
+      <c r="J25" s="97">
         <f>IF(A59=FALSE,I34/C35,(I33-I5-I7-I9-I11-I13-I15-I17-I19-I21-I23)/4)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K25" s="104">
+      <c r="K25" s="107">
         <f t="shared" ref="K25" si="58">J25-I25</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L25" s="92">
+      <c r="L25" s="95">
         <f>Gutsche!I24</f>
         <v>0</v>
       </c>
-      <c r="M25" s="94">
+      <c r="M25" s="97">
         <f>IF(A66=FALSE,L34/C35,(L33-L5-L7-L9-L11-L13-L15-L17-L19-L21-L23)/4)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N25" s="104">
+      <c r="N25" s="107">
         <f t="shared" ref="N25" si="59">M25-L25</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O25" s="92">
+      <c r="O25" s="95">
         <f>Lapp!I24</f>
         <v>0</v>
       </c>
-      <c r="P25" s="94">
+      <c r="P25" s="97">
         <f>IF(A59=FALSE,O34/C35,(O33-O5-O7-O9-O11-O13-O15-O17-O19-O21-O23)/4)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q25" s="104">
+      <c r="Q25" s="107">
         <f t="shared" ref="Q25" si="60">P25-O25</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R25" s="92">
+      <c r="R25" s="95">
         <f>Martschenko!I24</f>
         <v>0</v>
       </c>
-      <c r="S25" s="94">
+      <c r="S25" s="97">
         <f>IF(A59=FALSE,R34/C35,(R33-R5-R7-R9-R11-R13-R15-R17-R19-R21-R23)/4)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T25" s="96">
+      <c r="T25" s="99">
         <f t="shared" ref="T25" si="61">S25-R25</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U25" s="92">
+      <c r="U25" s="95">
         <f>Soboth!I24</f>
         <v>0</v>
       </c>
-      <c r="V25" s="94">
+      <c r="V25" s="97">
         <f>IF(A59=FALSE,U34/C35,(U33-U5-U7-U9-U11-U13-U15-U17-U19-U21-U23)/4)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W25" s="96">
+      <c r="W25" s="99">
         <f t="shared" ref="W25" si="62">V25-U25</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X25" s="92">
+      <c r="X25" s="95">
         <f>Stephan!I24</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="94">
+      <c r="Y25" s="97">
         <f>IF(A59=FALSE,X34/C35,(X33-X5-X7-X9-X11-X13-X15-X17-X19-X21-X23)/4)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z25" s="96">
+      <c r="Z25" s="99">
         <f t="shared" ref="Z25" si="63">Y25-X25</f>
         <v>0.82532051282051277</v>
       </c>
@@ -4181,32 +4218,32 @@
       <c r="B26" s="12">
         <v>42559</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="126"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="40"/>
       <c r="F26" s="36"/>
       <c r="G26" s="41"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="97"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="100"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -4215,83 +4252,83 @@
       <c r="B27" s="13">
         <v>42563</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="125" t="s">
+      <c r="C27" s="130"/>
+      <c r="D27" s="128" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="86">
+      <c r="H27" s="121"/>
+      <c r="I27" s="89">
         <f>Pellekoorne!I26</f>
         <v>0</v>
       </c>
-      <c r="J27" s="88">
+      <c r="J27" s="91">
         <f>IF(A60=FALSE,I34/C35,(I33-I5-I7-I9-I11-I13-I15-I17-I19-I21-I23-I25)/3)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K27" s="106">
+      <c r="K27" s="109">
         <f t="shared" ref="K27" si="64">J27-I27</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L27" s="86">
+      <c r="L27" s="89">
         <f>Gutsche!I26</f>
         <v>0</v>
       </c>
-      <c r="M27" s="88">
+      <c r="M27" s="91">
         <f>IF(A68=FALSE,L34/C35,(L33-L5-L7-L9-L11-L13-L15-L17-L19-L21-L23-L25)/3)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N27" s="106">
+      <c r="N27" s="109">
         <f t="shared" ref="N27" si="65">M27-L27</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O27" s="86">
+      <c r="O27" s="89">
         <f>Lapp!I26</f>
         <v>0</v>
       </c>
-      <c r="P27" s="88">
+      <c r="P27" s="91">
         <f>IF(A60=FALSE,O34/C35,(O33-O5-O7-O9-O11-O13-O15-O17-O19-O21-O23-O25)/3)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q27" s="106">
+      <c r="Q27" s="109">
         <f t="shared" ref="Q27" si="66">P27-O27</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R27" s="86">
+      <c r="R27" s="89">
         <f>Martschenko!I26</f>
         <v>0</v>
       </c>
-      <c r="S27" s="88">
+      <c r="S27" s="91">
         <f>IF(A60=FALSE,R34/C35,(R33-R5-R7-R9-R11-R13-R15-R17-R19-R21-R23-R25)/3)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T27" s="90">
+      <c r="T27" s="93">
         <f t="shared" ref="T27" si="67">S27-R27</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U27" s="86">
+      <c r="U27" s="89">
         <f>Soboth!I26</f>
         <v>0</v>
       </c>
-      <c r="V27" s="88">
+      <c r="V27" s="91">
         <f>IF(A60=FALSE,U34/C35,(U33-U5-U7-U9-U11-U13-U15-U17-U19-U21-U23-U25)/3)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W27" s="90">
+      <c r="W27" s="93">
         <f t="shared" ref="W27" si="68">V27-U27</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X27" s="86">
+      <c r="X27" s="89">
         <f>Stephan!I26</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="88">
+      <c r="Y27" s="91">
         <f>IF(A60=FALSE,X34/C35,(X33-X5-X7-X9-X11-X13-X15-X17-X19-X21-X23-X25)/3)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z27" s="90">
+      <c r="Z27" s="93">
         <f t="shared" ref="Z27" si="69">Y27-X27</f>
         <v>0.82532051282051277</v>
       </c>
@@ -4303,32 +4340,32 @@
       <c r="B28" s="10">
         <v>42566</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="125"/>
+      <c r="D28" s="128"/>
       <c r="E28" s="32"/>
       <c r="F28" s="2"/>
       <c r="G28" s="33"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="100"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="101"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="103"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -4337,83 +4374,83 @@
       <c r="B29" s="13">
         <v>42570</v>
       </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="126" t="s">
+      <c r="C29" s="130"/>
+      <c r="D29" s="129" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="92">
+      <c r="H29" s="121"/>
+      <c r="I29" s="95">
         <f>Pellekoorne!I28</f>
         <v>0</v>
       </c>
-      <c r="J29" s="94">
+      <c r="J29" s="97">
         <f>IF(A61=FALSE,I34/C35,(I33-I5-I7-I9-I11-I13-I15-I17-I19-I21-I23-I25-I27)/2)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K29" s="104">
+      <c r="K29" s="107">
         <f t="shared" ref="K29" si="70">J29-I29</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L29" s="92">
+      <c r="L29" s="95">
         <f>Gutsche!I28</f>
         <v>0</v>
       </c>
-      <c r="M29" s="94">
+      <c r="M29" s="97">
         <f>IF(A70=FALSE,L34/C35,(L33-L5-L7-L9-L11-L13-L15-L17-L19-L21-L23-L25-L27)/2)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N29" s="104">
+      <c r="N29" s="107">
         <f t="shared" ref="N29" si="71">M29-L29</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O29" s="92">
+      <c r="O29" s="95">
         <f>Lapp!I28</f>
         <v>0</v>
       </c>
-      <c r="P29" s="94">
+      <c r="P29" s="97">
         <f>IF(A61=FALSE,O34/C35,(O33-O5-O7-O9-O11-O13-O15-O17-O19-O21-O23-O25-O27)/2)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q29" s="104">
+      <c r="Q29" s="107">
         <f t="shared" ref="Q29" si="72">P29-O29</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R29" s="92">
+      <c r="R29" s="95">
         <f>Martschenko!I28</f>
         <v>0</v>
       </c>
-      <c r="S29" s="94">
+      <c r="S29" s="97">
         <f>IF(A61=FALSE,R34/C35,(R33-R5-R7-R9-R11-R13-R15-R17-R19-R21-R23-R25-R27)/2)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T29" s="96">
+      <c r="T29" s="99">
         <f t="shared" ref="T29" si="73">S29-R29</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U29" s="92">
+      <c r="U29" s="95">
         <f>Soboth!I28</f>
         <v>0</v>
       </c>
-      <c r="V29" s="94">
+      <c r="V29" s="97">
         <f>IF(A61=FALSE,U34/C35,(U33-U5-U7-U9-U11-U13-U15-U17-U19-U21-U23-U25-U27)/2)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W29" s="96">
+      <c r="W29" s="99">
         <f t="shared" ref="W29" si="74">V29-U29</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X29" s="92">
+      <c r="X29" s="95">
         <f>Stephan!I28</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="94">
+      <c r="Y29" s="97">
         <f>IF(A61=FALSE,X34/C35,(X33-X5-X7-X9-X11-X13-X15-X17-X19-X21-X23-X25-X27)/2)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z29" s="96">
+      <c r="Z29" s="99">
         <f t="shared" ref="Z29" si="75">Y29-X29</f>
         <v>0.82532051282051277</v>
       </c>
@@ -4425,32 +4462,32 @@
       <c r="B30" s="12">
         <v>42573</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="126"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="32"/>
       <c r="F30" s="2"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="97"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="100"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -4459,83 +4496,83 @@
       <c r="B31" s="13">
         <v>42577</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="D31" s="125" t="s">
+      <c r="C31" s="130"/>
+      <c r="D31" s="128" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="86">
+      <c r="H31" s="121"/>
+      <c r="I31" s="89">
         <f>Pellekoorne!I30</f>
         <v>0</v>
       </c>
-      <c r="J31" s="88">
+      <c r="J31" s="91">
         <f>IF(A62=FALSE,I34/C35,(I33-I5-I7-I9-I11-I13-I15-I17-I19-I21-I23-I25-I27-I29)/1)</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="K31" s="106">
+      <c r="K31" s="109">
         <f t="shared" ref="K31" si="76">J31-I31</f>
         <v>0.8141025641025641</v>
       </c>
-      <c r="L31" s="86">
+      <c r="L31" s="89">
         <f>Gutsche!I30</f>
         <v>0</v>
       </c>
-      <c r="M31" s="88">
+      <c r="M31" s="91">
         <f>IF(A72=FALSE,L34/C35,(L33-L5-L7-L9-L11-L13-L15-L17-L19-L21-L23-L25-L27-L29)/1)</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="N31" s="106">
+      <c r="N31" s="109">
         <f t="shared" ref="N31" si="77">M31-L31</f>
         <v>0.80715811965811968</v>
       </c>
-      <c r="O31" s="86">
+      <c r="O31" s="89">
         <f>Lapp!I30</f>
         <v>0</v>
       </c>
-      <c r="P31" s="88">
+      <c r="P31" s="91">
         <f>IF(A62=FALSE,O34/C35,(O33-O5-O7-O9-O11-O13-O15-O17-O19-O21-O23-O25-O27-O29)/1)</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="Q31" s="106">
+      <c r="Q31" s="109">
         <f t="shared" ref="Q31" si="78">P31-O31</f>
         <v>0.81730769230769229</v>
       </c>
-      <c r="R31" s="86">
+      <c r="R31" s="89">
         <f>Martschenko!I30</f>
         <v>0</v>
       </c>
-      <c r="S31" s="88">
+      <c r="S31" s="91">
         <f>IF(A62=FALSE,R34/C35,(R33-R5-R7-R9-R11-R13-R15-R17-R19-R21-R23-R25-R27-R29)/1)</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="T31" s="90">
+      <c r="T31" s="93">
         <f t="shared" ref="T31" si="79">S31-R31</f>
         <v>0.82211538461538458</v>
       </c>
-      <c r="U31" s="86">
+      <c r="U31" s="89">
         <f>Soboth!I30</f>
         <v>0</v>
       </c>
-      <c r="V31" s="88">
+      <c r="V31" s="91">
         <f>IF(A62=FALSE,U34/C35,(U33-U5-U7-U9-U11-U13-U15-U17-U19-U21-U23-U25-U27-U29)/1)</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="W31" s="90">
+      <c r="W31" s="93">
         <f t="shared" ref="W31" si="80">V31-U31</f>
         <v>0.82692307692307687</v>
       </c>
-      <c r="X31" s="86">
+      <c r="X31" s="89">
         <f>Stephan!I30</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="88">
+      <c r="Y31" s="91">
         <f>IF(A62=FALSE,X34/C35,(X33-X5-X7-X9-X11-X13-X15-X17-X19-X21-X23-X25-X27-X29)/1)</f>
         <v>0.82532051282051277</v>
       </c>
-      <c r="Z31" s="90">
+      <c r="Z31" s="93">
         <f t="shared" ref="Z31" si="81">Y31-X31</f>
         <v>0.82532051282051277</v>
       </c>
@@ -4547,32 +4584,32 @@
       <c r="B32" s="10">
         <v>42580</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="125"/>
+      <c r="D32" s="128"/>
       <c r="E32" s="42"/>
       <c r="F32" s="43"/>
       <c r="G32" s="44"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="91"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="94"/>
     </row>
     <row r="33" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
@@ -4581,105 +4618,105 @@
       <c r="B33" s="14">
         <v>42584</v>
       </c>
-      <c r="C33" s="128"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="111" t="s">
+      <c r="E33" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="111"/>
+      <c r="F33" s="114"/>
       <c r="H33" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="80">
+      <c r="I33" s="83">
         <v>11.25</v>
       </c>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="80">
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="83">
         <v>11.25</v>
       </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="80">
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="83">
         <v>11.25</v>
       </c>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="80">
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="83">
         <v>11.25</v>
       </c>
-      <c r="S33" s="81"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="80">
+      <c r="S33" s="84"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="83">
         <v>11.25</v>
       </c>
-      <c r="V33" s="81"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="80">
+      <c r="V33" s="84"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="83">
         <v>11.25</v>
       </c>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="82"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="85"/>
     </row>
     <row r="34" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H34" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="83">
+      <c r="I34" s="86">
         <f>IF(COUNTIF(A49:A62,TRUE)=0,I33,IF(COUNTIF(A49:A62,TRUE)=1,I33-I5,IF(COUNTIF(A49:A62,TRUE)=2,I33-I5-I7,IF(COUNTIF(A49:A62,TRUE) = 3,I33-I5-I7-I9,IF(COUNTIF(A49:A62,TRUE)=4,I33-I5-I7-I9-I11,IF(COUNTIF(A49:A62,TRUE) = 5,I33-I5-I7-I9-I11-I13,IF(COUNTIF(A49:A62,TRUE) = 6,I33-I5-I7-I9-I11-I13-I15,IF(COUNTIF(A49:A62,TRUE) = 7,I33-I5-I7-I9-I11-I13-I15-I17,IF(COUNTIF(A49:A62,TRUE) = 8,I33-I5-I7-I9-I11-I13-I15-I17-I19,IF(COUNTIF(A49:A62,TRUE) = 9,I33-I5-I7-I9-I11-I13-I15-I17-I19-I21,IF(COUNTIF(A49:A62,TRUE) = 10,I33-I5-I7-I9-I11-I13-I15-I17-I19-I21-I23,IF(COUNTIF(A49:A62,TRUE) = 11,I33-I5-I7-I9-I11-I13-I15-I17-I19-I21-I23-I25,IF(COUNTIF(A49:A62,TRUE) = 12,I33-I5-I7-I9-I11-I13-I15-I17-I19-I21-I23-I25-I27,IF(COUNTIF(A49:A62,TRUE) = 13,I33-I5-I7-I9-I11-I13-I15-I17-I19-I21-I23-I25-I27-I29,IF(COUNTIF(A49:A62,TRUE) = 14,I33-I5-I7-I9-I11-I13-I15-I17-I19-I21-I23-I25-I27-I29-I31,"falsche Eingabe")))))))))))))))</f>
         <v>10.583333333333334</v>
       </c>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="83">
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="86">
         <f>IF(COUNTIF(A49:A62,TRUE)=0,L33,IF(COUNTIF(A49:A62,TRUE)=1,L33-L5,IF(COUNTIF(A49:A62,TRUE)=2,L33-L5-L7,IF(COUNTIF(A49:A62,TRUE) = 3,L33-L5-L7-L9,IF(COUNTIF(A49:A62,TRUE)=4,L33-L5-L7-L9-L11,IF(COUNTIF(A49:A62,TRUE) = 5,L33-L5-L7-L9-L11-L13,IF(COUNTIF(A49:A62,TRUE) = 6,L33-L5-L7-L9-L11-L13-L15,IF(COUNTIF(A49:A62,TRUE) = 7,L33-L5-L7-L9-L11-L13-L15-L17,IF(COUNTIF(A49:A62,TRUE) = 8,L33-L5-L7-L9-L11-L13-L15-L17-L19,IF(COUNTIF(A49:A62,TRUE) = 9,L33-L5-L7-L9-L11-L13-L15-L17-L19-L21,IF(COUNTIF(A49:A62,TRUE) = 10,L33-L5-L7-L9-L11-L13-L15-L17-L19-L21-L23,IF(COUNTIF(A49:A62,TRUE) = 11,L33-L5-L7-L9-L11-L13-L15-L17-L19-L21-L23-L25,IF(COUNTIF(A49:A62,TRUE) = 12,L33-L5-L7-L9-L11-L13-L15-L17-L19-L21-L23-L25-L27,IF(COUNTIF(A49:A62,TRUE) = 13,L33-L5-L7-L9-L11-L13-L15-L17-L19-L21-L23-L25-L27-L29,IF(COUNTIF(A49:A62,TRUE) = 14,L33-L5-L7-L9-L11-L13-L15-L17-L19-L21-L23-L25-L27-L29-L31,"falsche Eingabe")))))))))))))))</f>
         <v>10.493055555555555</v>
       </c>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="83">
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="86">
         <f>IF(COUNTIF(A49:A62,TRUE)=0,O33,IF(COUNTIF(A49:A62,TRUE)=1,O33-O5,IF(COUNTIF(A49:A62,TRUE)=2,O33-O5-O7,IF(COUNTIF(A49:A62,TRUE) = 3,O33-O5-O7-O9,IF(COUNTIF(A49:A62,TRUE)=4,O33-O5-O7-O9-O11,IF(COUNTIF(A49:A62,TRUE) = 5,O33-O5-O7-O9-O11-O13,IF(COUNTIF(A49:A62,TRUE) = 6,O33-O5-O7-O9-O11-O13-O15,IF(COUNTIF(A49:A62,TRUE) = 7,O33-O5-O7-O9-O11-O13-O15-O17,IF(COUNTIF(A49:A62,TRUE) = 8,O33-O5-O7-O9-O11-O13-O15-O17-O19,IF(COUNTIF(A49:A62,TRUE) = 9,O33-O5-O7-O9-O11-O13-O15-O17-O19-O21,IF(COUNTIF(A49:A62,TRUE) = 10,O33-O5-O7-O9-O11-O13-O15-O17-O19-O21-O23,IF(COUNTIF(A49:A62,TRUE) = 11,O33-O5-O7-O9-O11-O13-O15-O17-O19-O21-O23-O25,IF(COUNTIF(A49:A62,TRUE) = 12,O33-O5-O7-O9-O11-O13-O15-O17-O19-O21-O23-O25-O27,IF(COUNTIF(A49:A62,TRUE) = 13,O33-O5-O7-O9-O11-O13-O15-O17-O19-O21-O23-O25-O27-O29,IF(COUNTIF(A49:A62,TRUE) = 14,O33-O5-O7-O9-O11-O13-O15-O17-O19-O21-O23-O25-O27-O29-O31,"falsche Eingabe")))))))))))))))</f>
         <v>10.625</v>
       </c>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="83">
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="86">
         <f>IF(COUNTIF(A49:A62,TRUE)=0,R33,IF(COUNTIF(A49:A62,TRUE)=1,R33-R5,IF(COUNTIF(A49:A62,TRUE)=2,R33-R5-R7,IF(COUNTIF(A49:A62,TRUE) = 3,R33-R5-R7-R9,IF(COUNTIF(A49:A62,TRUE)=4,R33-R5-R7-R9-R11,IF(COUNTIF(A49:A62,TRUE) = 5,R33-R5-R7-R9-R11-R13,IF(COUNTIF(A49:A62,TRUE) = 6,R33-R5-R7-R9-R11-R13-R15,IF(COUNTIF(A49:A62,TRUE) = 7,R33-R5-R7-R9-R11-R13-R15-R17,IF(COUNTIF(A49:A62,TRUE) = 8,R33-R5-R7-R9-R11-R13-R15-R17-R19,IF(COUNTIF(A49:A62,TRUE) = 9,R33-R5-R7-R9-R11-R13-R15-R17-R19-R21,IF(COUNTIF(A49:A62,TRUE) = 10,R33-R5-R7-R9-R11-R13-R15-R17-R19-R21-R23,IF(COUNTIF(A49:A62,TRUE) = 11,R33-R5-R7-R9-R11-R13-R15-R17-R19-R21-R23-R25,IF(COUNTIF(A49:A62,TRUE) = 12,R33-R5-R7-R9-R11-R13-R15-R17-R19-R21-R23-R25-R27,IF(COUNTIF(A49:A62,TRUE) = 13,R33-R5-R7-R9-R11-R13-R15-R17-R19-R21-R23-R25-R27-R29,IF(COUNTIF(A49:A62,TRUE) = 14,R33-R5-R7-R9-R11-R13-R15-R17-R19-R21-R23-R25-R27-R29-R31,"falsche Eingabe")))))))))))))))</f>
         <v>10.6875</v>
       </c>
-      <c r="S34" s="84"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="83">
+      <c r="S34" s="87"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="86">
         <f>IF(COUNTIF(A49:A62,TRUE)=0,U33,IF(COUNTIF(A49:A62,TRUE)=1,U33-U5,IF(COUNTIF(A49:A62,TRUE)=2,U33-U5-U7,IF(COUNTIF(A49:A62,TRUE) = 3,U33-U5-U7-U9,IF(COUNTIF(A49:A62,TRUE)=4,U33-U5-U7-U9-U11,IF(COUNTIF(A49:A62,TRUE) = 5,U33-U5-U7-U9-U11-U13,IF(COUNTIF(A49:A62,TRUE) = 6,U33-U5-U7-U9-U11-U13-U15,IF(COUNTIF(A49:A62,TRUE) = 7,U33-U5-U7-U9-U11-U13-U15-U17,IF(COUNTIF(A49:A62,TRUE) = 8,U33-U5-U7-U9-U11-U13-U15-U17-U19,IF(COUNTIF(A49:A62,TRUE) = 9,U33-U5-U7-U9-U11-U13-U15-U17-U19-U21,IF(COUNTIF(A49:A62,TRUE) = 10,U33-U5-U7-U9-U11-U13-U15-U17-U19-U21-U23,IF(COUNTIF(A49:A62,TRUE) = 11,U33-U5-U7-U9-U11-U13-U15-U17-U19-U21-U23-U25,IF(COUNTIF(A49:A62,TRUE) = 12,U33-U5-U7-U9-U11-U13-U15-U17-U19-U21-U23-U25-U27,IF(COUNTIF(A49:A62,TRUE) = 13,U33-U5-U7-U9-U11-U13-U15-U17-U19-U21-U23-U25-U27-U29,IF(COUNTIF(A49:A62,TRUE) = 14,U33-U5-U7-U9-U11-U13-U15-U17-U19-U21-U23-U25-U27-U29-U31,"falsche Eingabe")))))))))))))))</f>
         <v>10.75</v>
       </c>
-      <c r="V34" s="84"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="83">
+      <c r="V34" s="87"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="86">
         <f>IF(COUNTIF(A49:A62,TRUE)=0,X33,IF(COUNTIF(A49:A62,TRUE)=1,X33-X5,IF(COUNTIF(A49:A62,TRUE)=2,X33-X5-X7,IF(COUNTIF(A49:A62,TRUE) = 3,X33-X5-X7-X9,IF(COUNTIF(A49:A62,TRUE)=4,X33-X5-X7-X9-X11,IF(COUNTIF(A49:A62,TRUE) = 5,X33-X5-X7-X9-X11-X13,IF(COUNTIF(A49:A62,TRUE) = 6,X33-X5-X7-X9-X11-X13-X15,IF(COUNTIF(A49:A62,TRUE) = 7,X33-X5-X7-X9-X11-X13-X15-X17,IF(COUNTIF(A49:A62,TRUE) = 8,X33-X5-X7-X9-X11-X13-X15-X17-X19,IF(COUNTIF(A49:A62,TRUE) = 9,X33-X5-X7-X9-X11-X13-X15-X17-X19-X21,IF(COUNTIF(A49:A62,TRUE) = 10,X33-X5-X7-X9-X11-X13-X15-X17-X19-X21-X23,IF(COUNTIF(A49:A62,TRUE) = 11,X33-X5-X7-X9-X11-X13-X15-X17-X19-X21-X23-X25,IF(COUNTIF(A49:A62,TRUE) = 12,X33-X5-X7-X9-X11-X13-X15-X17-X19-X21-X23-X25-X27,IF(COUNTIF(A49:A62,TRUE) = 13,X33-X5-X7-X9-X11-X13-X15-X17-X19-X21-X23-X25-X27-X29,IF(COUNTIF(A49:A62,TRUE) = 14,X33-X5-X7-X9-X11-X13-X15-X17-X19-X21-X23-X25-X27-X29-X31,"falsche Eingabe")))))))))))))))</f>
         <v>10.729166666666666</v>
       </c>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="85"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="88"/>
     </row>
     <row r="35" spans="1:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="A35" s="123" t="s">
+      <c r="A35" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="124">
+      <c r="B35" s="126"/>
+      <c r="C35" s="127">
         <f>COUNTIF(A49:A62,FALSE)</f>
         <v>13</v>
       </c>
       <c r="H35" s="16"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="123"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="124"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="127"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
@@ -5404,24 +5441,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03BA869-76FA-4D5C-AE41-A8C4718538CB}">
-  <dimension ref="A1:L31"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
       <c r="K1" s="48" t="s">
         <v>56</v>
       </c>
@@ -5464,22 +5504,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G4" s="95">
+      <c r="G4" s="98">
         <v>0.29166666666666669</v>
       </c>
-      <c r="H4" s="141">
+      <c r="H4" s="144">
         <v>0.29166666666666669</v>
       </c>
-      <c r="I4" s="140">
+      <c r="I4" s="143">
         <f>SUM(C4:H5)</f>
         <v>0.66666666666666674</v>
       </c>
@@ -5491,14 +5531,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="144"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="140"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="143"/>
       <c r="K5" s="32" t="s">
         <v>62</v>
       </c>
@@ -5507,22 +5547,26 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139">
+      <c r="C6" s="142">
+        <f>SUM(L9:L10,L12,L13,L14)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142">
+        <f>SUM(L11)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I6" s="140">
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="I6" s="143">
         <f>SUM(C6:H7)</f>
-        <v>0.10416666666666666</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="K6" s="50" t="s">
         <v>63</v>
@@ -5532,30 +5576,30 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
       <c r="K7" s="66" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="67"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143">
         <f>SUM(C8:H9)</f>
         <v>0</v>
       </c>
@@ -5567,47 +5611,51 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="142"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
       <c r="K9" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="59"/>
+      <c r="L9" s="59">
+        <v>6.5972222222222224E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143">
         <f>SUM(C10:H11)</f>
         <v>0</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="60"/>
+      <c r="L10" s="60">
+        <v>1.7361111111111112E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="142"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
       <c r="K11" s="32" t="s">
         <v>78</v>
       </c>
@@ -5616,257 +5664,327 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143">
         <f>SUM(C12:H13)</f>
         <v>0</v>
       </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="80">
+        <v>1.7361111111111112E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="142"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="80">
+        <v>2.7777777777777776E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140">
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143">
         <f>SUM(C14:H15)</f>
         <v>0</v>
       </c>
+      <c r="K14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="80">
+        <v>0.12152777777777778</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143">
         <f>SUM(C16:H17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="142"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="142" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="147"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140">
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143">
         <f>SUM(C18:H19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="142" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="147"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+      <c r="L19" s="79"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143">
         <f>SUM(C20:H21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="142" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="147"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="140">
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143">
         <f>SUM(C22:H23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="142"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="142" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="147"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143">
         <f>SUM(C24:H25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="142"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="142" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="147"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140">
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143">
         <f>SUM(C26:H27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="142"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="142" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="147"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143">
         <f>SUM(C28:H29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="142"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="142" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="147"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140">
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143">
         <f>SUM(C30:H31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="142"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="147"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="143">
+        <f>SUM(C4:C31)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="143">
+        <f t="shared" ref="D32:H32" si="0">SUM(D4:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="143">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F32" s="143">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I32" s="149"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="121">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
@@ -5875,10 +5993,22 @@
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -5895,7 +6025,6 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -5905,13 +6034,6 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C28:C29"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -5933,6 +6055,9 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
@@ -5942,18 +6067,11 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="A1:C1"/>
@@ -5988,10 +6106,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE8148D-1B7A-4C79-B845-05B9873B3D98}">
-  <dimension ref="A1:L31"/>
+  <sheetPr codeName="Tabelle3"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,11 +6120,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
       <c r="K1" s="48" t="s">
         <v>56</v>
       </c>
@@ -6048,20 +6167,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144">
         <v>0.46527777777777773</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="141">
+      <c r="G4" s="98"/>
+      <c r="H4" s="144">
         <v>0.29166666666666669</v>
       </c>
-      <c r="I4" s="140">
+      <c r="I4" s="143">
         <f>SUM(C4:H5)</f>
         <v>0.75694444444444442</v>
       </c>
@@ -6073,14 +6192,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="144"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="140"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="143"/>
       <c r="K5" s="55" t="s">
         <v>65</v>
       </c>
@@ -6089,20 +6208,26 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139">
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142">
+        <f>SUM(L10,L12)</f>
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142">
         <v>6.25E-2</v>
       </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140">
+      <c r="H6" s="142">
+        <f>Meetings!B12</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I6" s="143">
         <f>SUM(C6:H7)</f>
-        <v>6.25E-2</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="K6" s="55" t="s">
         <v>66</v>
@@ -6112,14 +6237,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
       <c r="K7" s="56" t="s">
         <v>67</v>
       </c>
@@ -6128,16 +6253,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143">
         <f>SUM(C8:H9)</f>
         <v>0</v>
       </c>
@@ -6147,14 +6272,14 @@
       <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="142"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
       <c r="K9" s="53" t="s">
         <v>59</v>
       </c>
@@ -6163,33 +6288,35 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143">
         <f>SUM(C10:H11)</f>
         <v>0</v>
       </c>
       <c r="K10" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="59">
+        <v>5.2083333333333336E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="142"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
       <c r="K11" s="55" t="s">
         <v>77</v>
       </c>
@@ -6198,261 +6325,314 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143">
         <f>SUM(C12:H13)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="58"/>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="80">
+        <v>3.4722222222222224E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="142"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
       <c r="K13" s="2"/>
       <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140">
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143">
         <f>SUM(C14:H15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143">
         <f>SUM(C16:H17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="142"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140">
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143">
         <f>SUM(C18:H19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143">
         <f>SUM(C20:H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="140">
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143">
         <f>SUM(C22:H23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="142"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143">
         <f>SUM(C24:H25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="142"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140">
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143">
         <f>SUM(C26:H27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="142"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143">
         <f>SUM(C28:H29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="142"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140">
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143">
         <f>SUM(C30:H31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="142"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="143">
+        <f>SUM(C4:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="143">
+        <f t="shared" ref="D32:H32" si="0">SUM(D4:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="143">
+        <f t="shared" si="0"/>
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="F32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G32" s="143">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="I32" s="149"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="121">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -6469,20 +6649,10 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I10:I11"/>
@@ -6490,7 +6660,7 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -6501,7 +6671,7 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -6514,7 +6684,9 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
@@ -6528,7 +6700,9 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
@@ -6542,7 +6716,9 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -6554,6 +6730,9 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -6573,10 +6752,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5F7F55-D1AF-49ED-A302-52173CF36852}">
-  <dimension ref="A1:L31"/>
+  <sheetPr codeName="Tabelle4"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6586,11 +6766,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
       <c r="K1" s="48" t="s">
         <v>56</v>
       </c>
@@ -6633,20 +6813,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="141">
+      <c r="G4" s="98"/>
+      <c r="H4" s="144">
         <v>0.29166666666666669</v>
       </c>
-      <c r="I4" s="140">
+      <c r="I4" s="143">
         <f>SUM(C4:H5)</f>
         <v>0.625</v>
       </c>
@@ -6658,14 +6838,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="144"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="140"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="143"/>
       <c r="K5" s="63" t="s">
         <v>69</v>
       </c>
@@ -6674,18 +6854,30 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140">
+      <c r="C6" s="142">
+        <f>SUM(L10,L13)</f>
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142">
+        <f>SUM(L9,L11,L12)</f>
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="F6" s="142">
+        <f>SUM(L8)</f>
+        <v>0.125</v>
+      </c>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142">
+        <f>Meetings!B12</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I6" s="143">
         <f>SUM(C6:H7)</f>
-        <v>0</v>
+        <v>0.43402777777777779</v>
       </c>
       <c r="K6" s="66" t="s">
         <v>1</v>
@@ -6693,14 +6885,14 @@
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
       <c r="K7" s="53" t="s">
         <v>59</v>
       </c>
@@ -6709,313 +6901,391 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143">
         <f>SUM(C8:H9)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="59"/>
+      <c r="K8" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="58">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="142"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="58"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="80">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143">
         <f>SUM(C10:H11)</f>
         <v>0</v>
       </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="80">
+        <v>2.7777777777777776E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="142"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="80">
+        <v>3.4722222222222224E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143">
         <f>SUM(C12:H13)</f>
         <v>0</v>
       </c>
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="80">
+        <v>3.125E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="142"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="80">
+        <v>0.10416666666666667</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140">
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143">
         <f>SUM(C14:H15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143">
         <f>SUM(C16:H17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="142"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140">
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143">
         <f>SUM(C18:H19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143">
         <f>SUM(C20:H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="140">
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143">
         <f>SUM(C22:H23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="142"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143">
         <f>SUM(C24:H25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="142"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140">
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143">
         <f>SUM(C26:H27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="142"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143">
         <f>SUM(C28:H29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="142"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140">
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143">
         <f>SUM(C30:H31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="142"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="143">
+        <f>SUM(C4:C31)</f>
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="D32" s="143">
+        <f t="shared" ref="D32:H32" si="0">SUM(D4:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="F32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G32" s="143">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="I32" s="149"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="121">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -7131,15 +7401,17 @@
     <mergeCell ref="G30:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1A7AB8-39D5-4390-A3BC-34FBC6AEBD68}">
-  <dimension ref="A1:L31"/>
+  <sheetPr codeName="Tabelle5"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7149,11 +7421,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
       <c r="K1" s="48" t="s">
         <v>56</v>
       </c>
@@ -7196,22 +7468,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F4" s="141">
+      <c r="F4" s="144">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="141">
+      <c r="G4" s="98"/>
+      <c r="H4" s="144">
         <v>0.29166666666666669</v>
       </c>
-      <c r="I4" s="140">
+      <c r="I4" s="143">
         <f>SUM(C4:H5)</f>
         <v>0.5625</v>
       </c>
@@ -7223,14 +7495,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="144"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="140"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="143"/>
       <c r="K5" s="63" t="s">
         <v>71</v>
       </c>
@@ -7239,18 +7511,27 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140">
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142">
+        <f>SUM(L10)</f>
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142">
+        <f>SUM(L8,L9)</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="H6" s="142">
+        <f>Meetings!B12</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I6" s="143">
         <f>SUM(C6:H7)</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="K6" s="66" t="s">
         <v>1</v>
@@ -7258,14 +7539,14 @@
       <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
       <c r="K7" s="53" t="s">
         <v>59</v>
       </c>
@@ -7274,317 +7555,374 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143">
         <f>SUM(C8:H9)</f>
         <v>0</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="59"/>
+        <v>79</v>
+      </c>
+      <c r="L8" s="59">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="142"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
-      <c r="K9" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="60"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="K9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="58">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143">
         <f>SUM(C10:H11)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="80">
+        <v>3.4722222222222224E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="142"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143">
         <f>SUM(C12:H13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="142"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140">
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143">
         <f>SUM(C14:H15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143">
         <f>SUM(C16:H17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="142"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140">
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143">
         <f>SUM(C18:H19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143">
         <f>SUM(C20:H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="140">
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143">
         <f>SUM(C22:H23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="142"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143">
         <f>SUM(C24:H25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="142"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140">
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143">
         <f>SUM(C26:H27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="142"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143">
         <f>SUM(C28:H29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="142"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140">
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143">
         <f>SUM(C30:H31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="142"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="143">
+        <f>SUM(C4:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="143">
+        <f t="shared" ref="D32:H32" si="0">SUM(D4:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="F32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="H32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="I32" s="149"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="121">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -7601,15 +7939,638 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615E9B10-6289-4276-BEC3-0F3ADB425B99}">
+  <sheetPr codeName="Tabelle6"/>
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="141" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="K1" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K2" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="52"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="145" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G4" s="98"/>
+      <c r="H4" s="144">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I4" s="143">
+        <f>SUM(C4:H5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="59">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="146"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="143"/>
+      <c r="K5" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="61">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142">
+        <f>SUM(L8:L10)</f>
+        <v>0.19097222222222224</v>
+      </c>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142">
+        <f>Meetings!B12</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I6" s="143">
+        <f>SUM(C6:H7)</f>
+        <v>0.21875</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="147"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
+      <c r="K7" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143">
+        <f>SUM(C8:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="59">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="147"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="K9" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="60">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143">
+        <f>SUM(C10:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="68">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="147"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143">
+        <f>SUM(C12:H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="147"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143">
+        <f>SUM(C14:H15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="147"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143">
+        <f>SUM(C16:H17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="147"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143">
+        <f>SUM(C18:H19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="147"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143">
+        <f>SUM(C20:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="147"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143">
+        <f>SUM(C22:H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="147"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143">
+        <f>SUM(C24:H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="147"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143">
+        <f>SUM(C26:H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="147"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="147" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143">
+        <f>SUM(C28:H29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="147"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143">
+        <f>SUM(C30:H31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="147"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="143">
+        <f>SUM(C4:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="143">
+        <f t="shared" ref="D32:H32" si="0">SUM(D4:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.19097222222222224</v>
+      </c>
+      <c r="F32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G32" s="143">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="I32" s="149"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="121">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -7633,7 +8594,7 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -7646,7 +8607,9 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
@@ -7660,7 +8623,9 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
@@ -7674,7 +8639,9 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -7686,6 +8653,9 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -7703,38 +8673,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615E9B10-6289-4276-BEC3-0F3ADB425B99}">
-  <dimension ref="A1:M31"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94D7682-CA20-401D-A420-64D82EDAB997}">
+  <sheetPr codeName="Tabelle7"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" customWidth="1"/>
+    <col min="11" max="11" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="138" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
       <c r="K1" s="48" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="49"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K2" s="51" t="s">
         <v>37</v>
       </c>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="21"/>
       <c r="C3" s="18" t="s">
         <v>57</v>
@@ -7764,77 +8735,80 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="141">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G4" s="98"/>
+      <c r="H4" s="144">
         <v>0.29166666666666669</v>
       </c>
-      <c r="I4" s="140">
+      <c r="I4" s="143">
         <f>SUM(C4:H5)</f>
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="59">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="144"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="140"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="146"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="143"/>
       <c r="K5" s="65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" s="61">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139">
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140">
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142">
+        <f>SUM(L8:L10)</f>
+        <v>0.28125</v>
+      </c>
+      <c r="H6" s="142">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="I6" s="143">
         <f>SUM(C6:H7)</f>
-        <v>0.1076388888888889</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="K6" s="66" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="147"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
       <c r="K7" s="53" t="s">
         <v>59</v>
       </c>
@@ -7842,327 +8816,374 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="143">
         <f>SUM(C8:H9)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="59">
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="142"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
-      <c r="K9" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="60"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="K8" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="58">
+        <v>0.12847222222222224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="147"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="80">
+        <v>9.0277777777777776E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143">
         <f>SUM(C10:H11)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="68">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="142"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="80">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="147"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143">
         <f>SUM(C12:H13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="142"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="147"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140">
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143">
         <f>SUM(C14:H15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="147"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143">
         <f>SUM(C16:H17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="142"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140">
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143">
         <f>SUM(C18:H19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143">
         <f>SUM(C20:H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="140">
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143">
         <f>SUM(C22:H23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="142"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143">
         <f>SUM(C24:H25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="142"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140">
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143">
         <f>SUM(C26:H27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="142"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143">
         <f>SUM(C28:H29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="142"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140">
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143">
         <f>SUM(C30:H31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="142"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="143">
+        <f>SUM(C4:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="143">
+        <f t="shared" ref="D32:H32" si="0">SUM(D4:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="143">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
+      </c>
+      <c r="H32" s="143">
+        <f t="shared" si="0"/>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="I32" s="149"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="149"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="121">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -8179,15 +9200,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -8211,7 +9223,7 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -8224,7 +9236,9 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
@@ -8238,7 +9252,9 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
@@ -8252,7 +9268,9 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -8264,569 +9282,9 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94D7682-CA20-401D-A420-64D82EDAB997}">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="41.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="K1" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="49"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K2" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="52"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="141">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="I4" s="140">
-        <f>SUM(C4:H5)</f>
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="59">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="144"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="140"/>
-      <c r="K5" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="61">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140">
-        <f>SUM(C6:H7)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
-      <c r="K7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140">
-        <f>SUM(C8:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="59"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="142"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="58"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140">
-        <f>SUM(C10:H11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="142"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140">
-        <f>SUM(C12:H13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="142"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140">
-        <f>SUM(C14:H15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140">
-        <f>SUM(C16:H17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="142"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140">
-        <f>SUM(C18:H19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140">
-        <f>SUM(C20:H21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="140">
-        <f>SUM(C22:H23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="142"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140">
-        <f>SUM(C24:H25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="142"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="142" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140">
-        <f>SUM(C26:H27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="142"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="142" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140">
-        <f>SUM(C28:H29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="142"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140">
-        <f>SUM(C30:H31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="142"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
-    </row>
-  </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -8847,10 +9305,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F3ACE2-57E9-4BF1-BFDA-14E966AF77B6}">
-  <dimension ref="A1:B11"/>
+  <sheetPr codeName="Tabelle8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8861,7 +9320,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="49"/>
     </row>
@@ -8873,49 +9332,49 @@
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="75">
+      <c r="A4" s="74">
         <v>42482</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="78">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="76">
+      <c r="A5" s="75">
         <v>42486</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="76">
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76">
+      <c r="A6" s="75">
         <v>42487</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="76">
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="76">
+      <c r="A7" s="75">
         <v>42489</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="76">
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="74">
+      <c r="A8" s="73">
         <v>42491</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="77">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -8927,18 +9386,26 @@
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="75">
+      <c r="A11" s="74">
         <v>42493</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="72">
         <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="81">
+        <v>42496</v>
+      </c>
+      <c r="B12" s="82">
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
   </sheetData>
